--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Desktop/dsa3101_datasciprac/project/dsa3101-2220-03-airline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2280DA89-7988-F143-AF87-90ED7E946DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98164C1-33AF-4F4F-865C-1BBC57A970CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="500" windowWidth="23740" windowHeight="16940" xr2:uid="{0CF4B2C0-5CF5-7944-9B83-2A2054250278}"/>
   </bookViews>
@@ -308,26 +308,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,6 +327,90 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,115 +418,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,299 +770,297 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="10.83203125" style="6"/>
-    <col min="4" max="8" width="10.83203125" style="4"/>
-    <col min="9" max="9" width="10.83203125" style="7"/>
-    <col min="17" max="17" width="10.83203125" style="6"/>
-    <col min="18" max="22" width="10.83203125" style="4"/>
-    <col min="23" max="23" width="10.83203125" style="7"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="9" max="9" width="10.83203125" style="4"/>
+    <col min="17" max="17" width="10.83203125" style="3"/>
+    <col min="23" max="23" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="12" t="s">
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="15" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="9">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="5">
         <v>44998</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="6">
         <v>44999</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="6">
         <v>45000</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="6">
         <v>45001</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="6">
         <v>45002</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="6">
         <v>45003</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="7">
         <v>45004</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="6">
         <v>45005</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="6">
         <v>45006</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="6">
         <v>45007</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="6">
         <v>45008</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="6">
         <v>45009</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="6">
         <v>45010</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="6">
         <v>45011</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="5">
         <v>45012</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="6">
         <v>45013</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="6">
         <v>45014</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="6">
         <v>45015</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="6">
         <v>45016</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="6">
         <v>45017</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="7">
         <v>45018</v>
       </c>
-      <c r="X2" s="10">
+      <c r="X2" s="6">
         <v>45019</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="22" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:24" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="20"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="1:24" s="28" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="1:24" s="18" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="26"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="16"/>
     </row>
-    <row r="5" spans="1:24" s="34" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="1:24" s="23" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="32"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="21"/>
     </row>
-    <row r="6" spans="1:24" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:24" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="38"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="26"/>
     </row>
-    <row r="7" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="44"/>
+    <row r="7" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="30"/>
     </row>
-    <row r="8" spans="1:24" s="40" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="49"/>
+    <row r="8" spans="1:24" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Desktop/dsa3101_datasciprac/project/dsa3101-2220-03-airline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98164C1-33AF-4F4F-865C-1BBC57A970CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3A609A-9CED-4A41-81A4-5D66FEAEAA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="500" windowWidth="23740" windowHeight="16940" xr2:uid="{0CF4B2C0-5CF5-7944-9B83-2A2054250278}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Week 9</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>Build test app with small data subset</t>
+  </si>
+  <si>
+    <t>Send out interview requests/questions</t>
+  </si>
+  <si>
+    <t>Send supplementary interview questions to frontend</t>
+  </si>
+  <si>
+    <t>Finish creating models draft 1 before meeting</t>
+  </si>
+  <si>
+    <t>Implement more flight data viz options before meeting</t>
   </si>
 </sst>
 </file>
@@ -770,7 +782,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,7 +902,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
@@ -900,7 +912,9 @@
       <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -922,7 +936,7 @@
       <c r="W3" s="12"/>
       <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="1:24" s="18" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="14" t="s">
         <v>6</v>
@@ -933,7 +947,9 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
       <c r="J4" s="16"/>
@@ -980,7 +996,7 @@
       <c r="W5" s="22"/>
       <c r="X5" s="21"/>
     </row>
-    <row r="6" spans="1:24" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>9</v>
       </c>
@@ -988,10 +1004,14 @@
       <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="26"/>
       <c r="I6" s="27"/>
       <c r="J6" s="26"/>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Desktop/dsa3101_datasciprac/project/dsa3101-2220-03-airline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinloh/Desktop/DSA3101/dsa3101-2220-03-airline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3A609A-9CED-4A41-81A4-5D66FEAEAA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7864013-54E5-8741-974A-7F8AF564FC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="500" windowWidth="23740" windowHeight="16940" xr2:uid="{0CF4B2C0-5CF5-7944-9B83-2A2054250278}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Week 9</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Implement more flight data viz options before meeting</t>
+  </si>
+  <si>
+    <t>Modelling</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Setup database on aws</t>
+  </si>
+  <si>
+    <t>Viz plots</t>
   </si>
 </sst>
 </file>
@@ -110,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +177,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF53D300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -320,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,18 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,6 +473,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,6 +516,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF53D300"/>
+      <color rgb="FF6BD277"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -776,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB004F3-DA4B-B04F-824B-55CA9A9F0DDE}">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,46 +849,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="37" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="36" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="38"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="34"/>
       <c r="X1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="5">
         <v>44998</v>
       </c>
@@ -903,7 +957,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -937,7 +991,7 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
@@ -969,7 +1023,7 @@
       <c r="X4" s="16"/>
     </row>
     <row r="5" spans="1:24" s="23" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
@@ -997,7 +1051,7 @@
       <c r="X5" s="21"/>
     </row>
     <row r="6" spans="1:24" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="24"/>
@@ -1009,9 +1063,7 @@
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="26" t="s">
-        <v>15</v>
-      </c>
+      <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="27"/>
       <c r="J6" s="26"/>
@@ -1030,14 +1082,18 @@
       <c r="W6" s="27"/>
       <c r="X6" s="26"/>
     </row>
-    <row r="7" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="28"/>
+    <row r="7" spans="1:24" s="18" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="28" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="29"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="G7" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" s="30"/>
       <c r="I7" s="31"/>
       <c r="J7" s="30"/>
@@ -1056,31 +1112,91 @@
       <c r="W7" s="31"/>
       <c r="X7" s="30"/>
     </row>
-    <row r="8" spans="1:24" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="34"/>
+    <row r="8" spans="1:24" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="48"/>
+    </row>
+    <row r="9" spans="1:24" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="55"/>
+    </row>
+    <row r="10" spans="1:24" s="18" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1088,7 +1204,7 @@
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A6:A10"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinloh/Desktop/DSA3101/dsa3101-2220-03-airline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Desktop/dsa3101_datasciprac/project/dsa3101-2220-03-airline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7864013-54E5-8741-974A-7F8AF564FC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BD378C-39D5-5546-866A-BCBFFE394776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="500" windowWidth="23740" windowHeight="16940" xr2:uid="{0CF4B2C0-5CF5-7944-9B83-2A2054250278}"/>
+    <workbookView xWindow="9500" yWindow="500" windowWidth="18920" windowHeight="16940" xr2:uid="{0CF4B2C0-5CF5-7944-9B83-2A2054250278}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Week 9</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Finish creating models draft 1 before meeting</t>
   </si>
   <si>
-    <t>Implement more flight data viz options before meeting</t>
-  </si>
-  <si>
     <t>Modelling</t>
   </si>
   <si>
@@ -99,6 +96,21 @@
   </si>
   <si>
     <t>Viz plots</t>
+  </si>
+  <si>
+    <t>Consolidate all interview responses for backend</t>
+  </si>
+  <si>
+    <t>Implement testing flight data viz with Plotly</t>
+  </si>
+  <si>
+    <t>Get model and data from backend</t>
+  </si>
+  <si>
+    <t>Implement skeleton interactive viz based on model and actual data</t>
+  </si>
+  <si>
+    <t>Integrate frontend, backend during meeting</t>
   </si>
 </sst>
 </file>
@@ -435,6 +447,42 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -473,42 +521,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,10 +845,10 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,46 +861,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="33" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="32" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="46"/>
       <c r="X1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="5">
         <v>44998</v>
       </c>
@@ -956,8 +968,8 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:24" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -972,7 +984,9 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I3" s="12"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -990,8 +1004,8 @@
       <c r="W3" s="12"/>
       <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="1:24" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+    <row r="4" spans="1:24" s="18" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" s="48"/>
       <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1002,15 +1016,19 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="L4" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="15"/>
@@ -1022,8 +1040,8 @@
       <c r="W4" s="17"/>
       <c r="X4" s="16"/>
     </row>
-    <row r="5" spans="1:24" s="23" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:24" s="23" customFormat="1" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
       <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1056,9 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="N5" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="20"/>
@@ -1051,7 +1071,7 @@
       <c r="X5" s="21"/>
     </row>
     <row r="6" spans="1:24" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="24"/>
@@ -1083,9 +1103,9 @@
       <c r="X6" s="26"/>
     </row>
     <row r="7" spans="1:24" s="18" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="30"/>
@@ -1113,90 +1133,92 @@
       <c r="X7" s="30"/>
     </row>
     <row r="8" spans="1:24" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="48"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="35"/>
     </row>
     <row r="9" spans="1:24" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="55"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="42"/>
     </row>
-    <row r="10" spans="1:24" s="18" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="49" t="s">
+    <row r="10" spans="1:24" s="18" customFormat="1" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="51"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinloh/Desktop/DSA3101/dsa3101-2220-03-airline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Desktop/dsa3101_datasciprac/project/dsa3101-2220-03-airline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7864013-54E5-8741-974A-7F8AF564FC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B722F648-EC4E-5E4E-BB92-433B9F03C525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="500" windowWidth="23740" windowHeight="16940" xr2:uid="{0CF4B2C0-5CF5-7944-9B83-2A2054250278}"/>
+    <workbookView xWindow="15440" yWindow="500" windowWidth="12980" windowHeight="16940" xr2:uid="{0CF4B2C0-5CF5-7944-9B83-2A2054250278}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Week 9</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>Viz plots</t>
+  </si>
+  <si>
+    <t>Consolidate all interview responses for backend</t>
+  </si>
+  <si>
+    <t>Get model and data from backend</t>
+  </si>
+  <si>
+    <t>Implement skeleton interactive viz based on model and actual data</t>
+  </si>
+  <si>
+    <t>Integrate frontend, backend during meeting</t>
   </si>
 </sst>
 </file>
@@ -435,6 +447,42 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -473,42 +521,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,10 +845,10 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,46 +861,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="33" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="32" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="46"/>
       <c r="X1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="5">
         <v>44998</v>
       </c>
@@ -956,8 +968,8 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:24" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -972,7 +984,9 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" s="12"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -990,8 +1004,8 @@
       <c r="W3" s="12"/>
       <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="1:24" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+    <row r="4" spans="1:24" s="18" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" s="48"/>
       <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1008,9 +1022,13 @@
       <c r="I4" s="17"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="L4" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="15"/>
@@ -1022,8 +1040,8 @@
       <c r="W4" s="17"/>
       <c r="X4" s="16"/>
     </row>
-    <row r="5" spans="1:24" s="23" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:24" s="23" customFormat="1" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
       <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1056,9 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="N5" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="20"/>
@@ -1051,7 +1071,7 @@
       <c r="X5" s="21"/>
     </row>
     <row r="6" spans="1:24" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="24"/>
@@ -1083,7 +1103,7 @@
       <c r="X6" s="26"/>
     </row>
     <row r="7" spans="1:24" s="18" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="28" t="s">
         <v>17</v>
       </c>
@@ -1113,90 +1133,92 @@
       <c r="X7" s="30"/>
     </row>
     <row r="8" spans="1:24" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="48"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="35"/>
     </row>
     <row r="9" spans="1:24" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="55"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="42"/>
     </row>
-    <row r="10" spans="1:24" s="18" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="49" t="s">
+    <row r="10" spans="1:24" s="18" customFormat="1" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="51"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Desktop/dsa3101_datasciprac/project/dsa3101-2220-03-airline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinloh/Desktop/DSA3101/dsa3101-2220-03-airline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BD378C-39D5-5546-866A-BCBFFE394776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D02D5C6-5CEA-444A-B71F-58BF3D2901F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="500" windowWidth="18920" windowHeight="16940" xr2:uid="{0CF4B2C0-5CF5-7944-9B83-2A2054250278}"/>
+    <workbookView xWindow="9500" yWindow="500" windowWidth="34840" windowHeight="22320" xr2:uid="{0CF4B2C0-5CF5-7944-9B83-2A2054250278}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Week 9</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Integrate frontend, backend during meeting</t>
+  </si>
+  <si>
+    <t>Finalise database on aws</t>
+  </si>
+  <si>
+    <t>Finish models to obtain feature importance</t>
   </si>
 </sst>
 </file>
@@ -848,7 +854,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1124,9 @@
       <c r="I7" s="31"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="L7" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
@@ -1146,7 +1154,9 @@
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="35"/>
+      <c r="J8" s="35" t="s">
+        <v>25</v>
+      </c>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
